--- a/docs/campOAC_B_gantt.xlsx
+++ b/docs/campOAC_B_gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelboulanger/Desktop/School/2022w1/COSC499/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelboulanger/Desktop/School/2022w1/COSC499/CampOAC-GroupB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097A9A3-125C-2540-803F-22DFE1505E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D98AE6-5D68-EF49-9FF4-39A4665BD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{734A393F-20E0-1D48-9F33-E52E5DF71D8F}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{734A393F-20E0-1D48-9F33-E52E5DF71D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task\Date</t>
   </si>
@@ -82,16 +82,29 @@
   </si>
   <si>
     <t>Database Skeleton</t>
+  </si>
+  <si>
+    <t>Picture Display</t>
+  </si>
+  <si>
+    <t>Polish for Demo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE4831-D0D7-FD4E-9FA9-CDC9063B47D6}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +555,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -549,6 +564,25 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/campOAC_B_gantt.xlsx
+++ b/docs/campOAC_B_gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelboulanger/Desktop/School/2022w1/COSC499/CampOAC-GroupB/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelboulanger/Desktop/School/2022w2/COSC499/CampOAC-GroupB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D98AE6-5D68-EF49-9FF4-39A4665BD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC02933-3297-3B4D-A232-61295A98CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{734A393F-20E0-1D48-9F33-E52E5DF71D8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Task\Date</t>
   </si>
@@ -88,6 +88,27 @@
   </si>
   <si>
     <t>Polish for Demo</t>
+  </si>
+  <si>
+    <t>Jan. 13</t>
+  </si>
+  <si>
+    <t>Jan. 20</t>
+  </si>
+  <si>
+    <t>Jan. 27</t>
+  </si>
+  <si>
+    <t>Paul: Phone Input Validation</t>
+  </si>
+  <si>
+    <t>Rohith: Implementing Peer Review Feedback</t>
+  </si>
+  <si>
+    <t>Baillie: Remote Hosting Set Up</t>
+  </si>
+  <si>
+    <t>Michael: Client Invoice Email Functionality</t>
   </si>
 </sst>
 </file>
@@ -142,11 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE4831-D0D7-FD4E-9FA9-CDC9063B47D6}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,40 +514,77 @@
       <c r="M1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -532,7 +592,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -540,7 +600,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -548,7 +608,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -557,7 +617,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -568,7 +628,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -576,7 +636,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>

--- a/docs/campOAC_B_gantt.xlsx
+++ b/docs/campOAC_B_gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelboulanger/Desktop/School/2022w2/COSC499/CampOAC-GroupB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC02933-3297-3B4D-A232-61295A98CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D8A9E-202B-B447-9A84-266D7AF938A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{734A393F-20E0-1D48-9F33-E52E5DF71D8F}"/>
   </bookViews>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE4831-D0D7-FD4E-9FA9-CDC9063B47D6}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/campOAC_B_gantt.xlsx
+++ b/docs/campOAC_B_gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelboulanger/Desktop/School/2022w2/COSC499/CampOAC-GroupB/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D8A9E-202B-B447-9A84-266D7AF938A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA1EF7-81ED-3348-83EC-1B01A91D956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{734A393F-20E0-1D48-9F33-E52E5DF71D8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task\Date</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Michael: Client Invoice Email Functionality</t>
+  </si>
+  <si>
+    <t>Paul: Disability Compliance</t>
+  </si>
+  <si>
+    <t>Rohith: Frontend Tweaks</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,6 +597,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -599,6 +611,12 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
